--- a/biology/Botanique/Posoqueria_longiflora/Posoqueria_longiflora.xlsx
+++ b/biology/Botanique/Posoqueria_longiflora/Posoqueria_longiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Posoqueria longiflora est une  espèce d'arbuste néotropical, appartenant à la famille des Rubiaceae. Il s'agit de l'espèce type du genre Posoqueria Aubl..
-Il est connu en Guyane sous les noms de Graine chien, Graine coumarou, Coq chien, Graine canne (créole), Dagoukoko, Agouchiton (Nenge tongo), Aliwa (Teko), Inouba kamwi, Kama-dan (Arawak), Aimiala, posowepo (Kali'na)[4].
-Au Guyana on l'appelle Bat food, Wild pawpaw (Creole), Kamadan ("arbre à tapir" en Arawak, car cet animal en mange les fruits)[5], Ambaoke, Kapaya watï ("Comme le papayer" en Karib), Sa anahoro ("nourriture pour chauve-souris" en Warao)[6].
+Il est connu en Guyane sous les noms de Graine chien, Graine coumarou, Coq chien, Graine canne (créole), Dagoukoko, Agouchiton (Nenge tongo), Aliwa (Teko), Inouba kamwi, Kama-dan (Arawak), Aimiala, posowepo (Kali'na).
+Au Guyana on l'appelle Bat food, Wild pawpaw (Creole), Kamadan ("arbre à tapir" en Arawak, car cet animal en mange les fruits), Ambaoke, Kapaya watï ("Comme le papayer" en Karib), Sa anahoro ("nourriture pour chauve-souris" en Warao).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Posoqueria longiflora est un arbuste, arbuste sarmenteux (rarement un arbre), atteignant 2-6(8) m de haut.
 Les branches sont minces, ventrues, plus épaisses et aplaties aux nœuds, glabres, tout comme les stipules, les pétioles et les deux faces des feuilles. 
@@ -532,7 +546,7 @@
 Les lobes sont pubérulents à pubérulent-glanduleux, de forme oblongue à oblong-lancéolé, à apex obtus, mesurant 2-4 cm de long pour 0,5-0,9 cm de large
 Les anthères sont linéaire-lancéolé, avec une base courte à sagittée, longues de 0,8-1,1 cm, avec le la face dorsale pubérulent-doux à strigose, et avec des poils aigus ou non à la base. 
 L'ovaire est glabrescent à glabre avec le style long de 14-16,5 cm, pubescent-glanduleux à glabre.
-Le fruit charnu, de type baie, est de forme oblongue, de couleur jaune-orangé, mesurant 5 cm sur 3 cm, avec un calice persistant, donnant l'apparence d'une couronne[7]. Ses 1-2 loges contiennent de nombreuses grosses graines jaunes, translucides et anguleuses[4].
+Le fruit charnu, de type baie, est de forme oblongue, de couleur jaune-orangé, mesurant 5 cm sur 3 cm, avec un calice persistant, donnant l'apparence d'une couronne. Ses 1-2 loges contiennent de nombreuses grosses graines jaunes, translucides et anguleuses.
 </t>
         </is>
       </c>
@@ -561,18 +575,20 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Posoqueria longiflora est un petit arbre, commun dans les forêts secondaires au Guyana, dont les fruits sont consommés par les chauve-souris et les tapirs[6]. Plutôt ripicole en Guyane, il y fructifie de juillet à octobre et de décembre à avril[4].
-Ses fleurs sont inodores ou légèrement parfumées pendant la journée et deviennent très odorantes du crépuscule au milieu de la nuit. Elles présentent un système de catapultage du pollen[8]. Il s'agit d'une espèce sphingophile (pollinisée par les papillons Sphingidae)[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Posoqueria longiflora est un petit arbre, commun dans les forêts secondaires au Guyana, dont les fruits sont consommés par les chauve-souris et les tapirs. Plutôt ripicole en Guyane, il y fructifie de juillet à octobre et de décembre à avril.
+Ses fleurs sont inodores ou légèrement parfumées pendant la journée et deviennent très odorantes du crépuscule au milieu de la nuit. Elles présentent un système de catapultage du pollen. Il s'agit d'une espèce sphingophile (pollinisée par les papillons Sphingidae).
 Plusieurs aspects de Posoqueria longiflora ont été étudié :
-l'anatomie de sa fleur[10]
-son degrés de domestication (il est faiblement domestiqué, pour ses fruits)[11]
-la structure de son bois[12],[13]
-l'anatomie de ses feuilles[14]
-la structure de son pollen[15]
-sa biologie reproductive[8]
-ses données chromosomiques[16]</t>
+l'anatomie de sa fleur
+son degrés de domestication (il est faiblement domestiqué, pour ses fruits)
+la structure de son bois,
+l'anatomie de ses feuilles
+la structure de son pollen
+sa biologie reproductive
+ses données chromosomiques</t>
         </is>
       </c>
     </row>
@@ -600,11 +616,13 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses fruits comestibles on une saveur douce[17]. On suce la chair jaune entourant les graines. 
-Ses grosses graines jaunes, anguleuses, cartilagineuses et translucides sont employées comme appât pour la pêche[4].
-À Moruca, les tiges sont tressées pour faire des parois dans les espaces de cuisine. Les gens croient que si une chauve-souris laisse tomber un de ses fruits près d'une maison, une personne de cette maison est enceinte[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses fruits comestibles on une saveur douce. On suce la chair jaune entourant les graines. 
+Ses grosses graines jaunes, anguleuses, cartilagineuses et translucides sont employées comme appât pour la pêche.
+À Moruca, les tiges sont tressées pour faire des parois dans les espaces de cuisine. Les gens croient que si une chauve-souris laisse tomber un de ses fruits près d'une maison, une personne de cette maison est enceinte.
 </t>
         </is>
       </c>
@@ -633,9 +651,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet en a proposé le protologue suivant[18] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet en a proposé le protologue suivant : 
 « 1. POSOQUERIA longiflora. (TABULA 51.) 
 Frutex ramoſus, quinque &amp; ſex - pedalis. Rami nodoſi, tortuoſi, oppoſiti. Folia oppoſita, ovata, oblonga, acuta, glabra, integerrima, petiolata. Intrà baſim petiolorum, stipula ab utroque latere lata, oblonga, rigida, acuta. Flores corymboſi, terminales, pedunculati, pedunculis munitis ad baſim tribus aut quatuor ſquamulis. Corolla alba.
 Floret Novembri ; fructum ſert Januario.
